--- a/excel/accessories.xlsx
+++ b/excel/accessories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -28,10 +28,13 @@
     <t xml:space="preserve">Цена</t>
   </si>
   <si>
+    <t xml:space="preserve">В месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">старая цена</t>
+  </si>
+  <si>
     <t xml:space="preserve">PlayStation DualSense White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.400.000 сум</t>
   </si>
   <si>
     <t xml:space="preserve">Смарт браслет Xiaomi Smart Band 10 Black</t>
@@ -161,10 +164,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +192,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,13 +251,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,11 +272,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,16 +485,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,305 +506,591 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>579000</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>66585</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>643000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>579000</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>66585</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>643000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>310000</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>35650</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>344000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>460000</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>511000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>460000</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>511000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1123000</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>129145</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>1248000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>254725</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>2461000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>899000</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>103385</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>999000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>356447.37</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>40991.44755</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>396000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>356447.37</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>40991.44755</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>396000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>254605.26</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>29279.6049</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>283000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>254605.26</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>29279.6049</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>283000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>169736.84</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>19519.7366</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>189000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>101842.11</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>11711.84265</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>113000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>135789.47</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>15615.78905</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>151000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>424342.11</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>48799.34265</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>471000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>19435</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>188000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>689000</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>79235</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>766000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>365000</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>41975</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>406000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>3626000</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>416990</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>4029000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>160885</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>1554000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>899000</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>103385</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>999000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>182850</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>1767000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>5090000</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>585350</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>5656000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>2490000</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>286350</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2767000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
+      <c r="A28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>999000</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>114885</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>1110000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
+      <c r="A29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>999000</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>114885</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>1110000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>219000</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>25185</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>243000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
+      <c r="A31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>279000</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>32085</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>310000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>149000</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>17135</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>166000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>929000</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>106835</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>1032000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>35</v>
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>699000</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>80385</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>777000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>699000</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>80385</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>777000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>259000</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>29785</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>288000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>259000</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>29785</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>288000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>249990</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>28748.85</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>278000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>249990</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>28748.85</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>278000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>99000</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>11385</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>110000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
+      <c r="A41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>99000</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>11385</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>110000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>539900</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>62088.5</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>600000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
+      <c r="A43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>129000</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>14835</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>143000</v>
       </c>
     </row>
   </sheetData>
